--- a/AAII_Financials/Quarterly/WFRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WFRD_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,156 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>945000</v>
+      </c>
+      <c r="E8" s="3">
         <v>903000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>832000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>842000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>807000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>821000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1215000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1246000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1314000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>686000</v>
+      </c>
+      <c r="E9" s="3">
         <v>677000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>636000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>654000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>631000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>609000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>913000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>953000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1007000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E10" s="3">
         <v>226000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>196000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>188000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>176000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>212000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>302000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>293000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +826,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,25 +839,28 @@
         <v>21000</v>
       </c>
       <c r="F12" s="3">
+        <v>21000</v>
+      </c>
+      <c r="G12" s="3">
         <v>20000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>21000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>23000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>33000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>36000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,37 +888,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-8000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>137000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>31000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>441000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>852000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-5346000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>805000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -911,8 +934,8 @@
       <c r="E15" s="3">
         <v>39000</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>11</v>
+      <c r="F15" s="3">
+        <v>39000</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>11</v>
@@ -929,8 +952,11 @@
       <c r="K15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +965,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>933000</v>
+      </c>
+      <c r="E17" s="3">
         <v>878000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>845000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>949000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>867000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1318000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2046000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-4127000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2064000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E18" s="3">
         <v>25000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-13000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-107000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-60000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-497000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-831000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5373000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-750000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,66 +1043,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-83000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-74000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-67000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-99000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-70000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-83000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-41000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E21" s="3">
         <v>56000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>24000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-58000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-42000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-454000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-757000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5456000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-666000</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,66 +1137,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-58000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-87000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-174000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-159000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-567000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-914000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5332000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-784000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E24" s="3">
         <v>15000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>23000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>21000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>44000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>68000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1233,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-73000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-110000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-195000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-167000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-579000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-958000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5264000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-815000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-78000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-116000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-174000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-581000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-966000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5253000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1329,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1361,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1425,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E32" s="3">
         <v>83000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>74000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>67000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>99000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>70000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>83000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>41000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-78000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-116000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-174000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-581000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-966000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5253000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1521,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-78000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-116000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-174000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-581000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-966000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5253000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1620,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1291000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1217000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1177000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1118000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1121000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>680000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>670000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>618000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,124 +1682,139 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>816000</v>
+      </c>
+      <c r="E43" s="3">
         <v>782000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>793000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>833000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>836000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>929000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1206000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1244000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1277000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>681000</v>
+      </c>
+      <c r="E44" s="3">
         <v>662000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>676000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>717000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>811000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>862000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1004000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>972000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1126000</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>456000</v>
+      </c>
+      <c r="E45" s="3">
         <v>465000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>512000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>509000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>525000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>456000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>494000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>619000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>845000</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3244000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3126000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3158000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3177000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3293000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2927000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3374000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3453000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3924000</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,66 +1842,75 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1139000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1234000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1298000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1374000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1451000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1522000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1726000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2378000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2143000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>695000</v>
+      </c>
+      <c r="E49" s="3">
         <v>734000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>771000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>810000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>841000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>875000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1000000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1353000</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +1970,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E52" s="3">
         <v>66000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>68000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>73000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>79000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>85000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>65000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>109000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>257000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2034,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5148000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5160000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5295000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5434000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5664000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5409000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6165000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7293000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6324000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,182 +2096,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>350000</v>
+      </c>
+      <c r="E57" s="3">
         <v>348000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>330000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>325000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>332000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>384000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>544000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>585000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>627000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E58" s="3">
         <v>10000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>32000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>26000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>13000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1706000</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>963000</v>
+      </c>
+      <c r="E59" s="3">
         <v>885000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1023000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1024000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1070000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1010000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1074000</v>
       </c>
       <c r="J59" s="3">
         <v>1074000</v>
       </c>
       <c r="K59" s="3">
+        <v>1074000</v>
+      </c>
+      <c r="L59" s="3">
         <v>1047000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1524000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1243000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1364000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1362000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1416000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1426000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1644000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1672000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3380000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2431000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2605000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2602000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2601000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2602000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2148000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2149000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2151000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>546000</v>
+      </c>
+      <c r="E62" s="3">
         <v>553000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>508000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>534000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>523000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>530000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>509000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>554000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8109000</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2382,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4527000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4434000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4508000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4527000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4577000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4142000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4346000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4413000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11586000</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2492,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2524,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2556,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2236000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2141000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2063000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1947000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1747000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1573000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-992000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-26000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10289000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2684,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>621000</v>
+      </c>
+      <c r="E76" s="3">
         <v>726000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>787000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>907000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1087000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1267000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1819000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2880000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5262000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2748,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-78000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-116000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-174000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-581000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-966000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5253000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +2833,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E83" s="3">
         <v>114000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>111000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>116000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>117000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>113000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>157000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>124000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>118000</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3023,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E89" s="3">
         <v>46000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>74000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>22000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>127000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>31000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>30000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-201000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3071,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-54000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-27000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-35000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-38000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-93000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-63000</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3165,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>1000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3000</v>
       </c>
-      <c r="F94" s="3">
-        <v>14000</v>
-      </c>
       <c r="G94" s="3">
-        <v>-3000</v>
+        <v>-10000</v>
       </c>
       <c r="H94" s="3">
+        <v>21000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-51000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-35000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-75000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13000</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3213,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3243,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,91 +3339,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-52000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>412000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-170000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>648000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>8000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-11000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E102" s="3">
         <v>44000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>58000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>537000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-36000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-250000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>432000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WFRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WFRD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,168 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>965000</v>
+      </c>
+      <c r="E8" s="3">
         <v>945000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>903000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>832000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>842000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>807000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>821000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1215000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1246000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1314000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>717000</v>
+      </c>
+      <c r="E9" s="3">
         <v>686000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>677000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>636000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>654000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>631000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>609000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>913000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>953000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1007000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>248000</v>
+      </c>
+      <c r="E10" s="3">
         <v>259000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>226000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>196000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>188000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>176000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>212000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>302000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>293000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,13 +839,14 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="E12" s="3">
         <v>21000</v>
@@ -842,25 +855,28 @@
         <v>21000</v>
       </c>
       <c r="G12" s="3">
+        <v>21000</v>
+      </c>
+      <c r="H12" s="3">
         <v>20000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>21000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>23000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>33000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>36000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,40 +907,46 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E14" s="3">
         <v>51000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-8000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>137000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>31000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>441000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>852000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-5346000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>805000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -937,8 +959,8 @@
       <c r="F15" s="3">
         <v>39000</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>11</v>
+      <c r="G15" s="3">
+        <v>39000</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>11</v>
@@ -955,8 +977,11 @@
       <c r="L15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1043000</v>
+      </c>
+      <c r="E17" s="3">
         <v>933000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>878000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>845000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>949000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>867000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1318000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2046000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-4127000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2064000</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E18" s="3">
         <v>12000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>25000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-107000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-60000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-497000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-831000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5373000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-750000</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,72 +1076,79 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-73000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-83000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-74000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-67000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-99000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-70000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-83000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-41000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E21" s="3">
         <v>51000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>56000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>24000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-58000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-42000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-454000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-757000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5456000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-666000</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1140,72 +1179,81 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-137000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-61000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-58000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-87000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-174000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-159000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-567000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-914000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5332000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-784000</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E24" s="3">
         <v>28000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>15000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>23000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>21000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>44000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>68000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-157000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-89000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-73000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-110000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-195000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-167000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-579000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-958000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5264000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-815000</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-161000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-95000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-78000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-116000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-174000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-581000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-966000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5253000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E32" s="3">
         <v>73000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>83000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>74000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>67000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>99000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>70000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>83000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>41000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-161000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-95000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-78000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-116000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-174000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-581000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-966000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5253000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-161000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-95000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-78000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-116000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-174000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-581000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-966000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5253000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,40 +1706,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>951000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1291000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1217000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1177000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1118000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1121000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>680000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>670000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>618000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1685,136 +1774,151 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>825000</v>
+      </c>
+      <c r="E43" s="3">
         <v>816000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>782000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>793000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>833000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>836000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>929000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1206000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1244000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1277000</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>670000</v>
+      </c>
+      <c r="E44" s="3">
         <v>681000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>662000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>676000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>717000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>811000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>862000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1004000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>972000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1126000</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>465000</v>
+      </c>
+      <c r="E45" s="3">
         <v>456000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>465000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>512000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>509000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>525000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>456000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>494000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>619000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>845000</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2911000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3244000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3126000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3158000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3177000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3293000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2927000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3374000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3453000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3924000</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1845,72 +1949,81 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1109000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1139000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1234000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1298000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1374000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1451000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1522000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1726000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2378000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2143000</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>657000</v>
+      </c>
+      <c r="E49" s="3">
         <v>695000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>734000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>771000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>810000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>841000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>875000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1000000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1353000</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,40 +2089,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E52" s="3">
         <v>70000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>66000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>68000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>73000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>79000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>85000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>65000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>109000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>257000</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4774000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5148000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5160000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5295000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5434000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5664000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5409000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6165000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7293000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6324000</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,200 +2226,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>380000</v>
+      </c>
+      <c r="E57" s="3">
         <v>350000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>348000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>330000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>325000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>332000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>384000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>544000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>585000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>627000</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E58" s="3">
         <v>211000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>32000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>26000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1706000</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>940000</v>
+      </c>
+      <c r="E59" s="3">
         <v>963000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>885000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1023000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1024000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1070000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1010000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1074000</v>
       </c>
       <c r="K59" s="3">
         <v>1074000</v>
       </c>
       <c r="L59" s="3">
+        <v>1074000</v>
+      </c>
+      <c r="M59" s="3">
         <v>1047000</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1332000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1524000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1243000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1364000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1362000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1416000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1426000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1644000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1672000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3380000</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2416000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2431000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2605000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2602000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2601000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2602000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2148000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2149000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2151000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>530000</v>
+      </c>
+      <c r="E62" s="3">
         <v>546000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>553000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>508000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>534000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>523000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>530000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>509000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>554000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8109000</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4302000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4527000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4434000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4508000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4527000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4577000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4142000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4346000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4413000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11586000</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2527,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2397000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2236000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2141000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2063000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1947000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1747000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1573000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-992000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-26000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10289000</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>472000</v>
+      </c>
+      <c r="E76" s="3">
         <v>621000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>726000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>787000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>907000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1087000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1267000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1819000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2880000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5262000</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-161000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-95000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-78000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-116000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-174000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-581000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-966000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5253000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,40 +3031,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E83" s="3">
         <v>112000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>114000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>111000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>116000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>117000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>113000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>157000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>124000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>118000</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E89" s="3">
         <v>114000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>46000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>74000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>22000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>127000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>31000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>30000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-201000</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,40 +3291,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-54000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-35000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-38000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-93000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-63000</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-81000</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>21000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-51000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-35000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-75000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13000</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,100 +3584,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-338000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-50000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-52000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>412000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-170000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>648000</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-11000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-333000</v>
+      </c>
+      <c r="E102" s="3">
         <v>59000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>44000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>58000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>537000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-36000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-250000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>432000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WFRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WFRD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>938000</v>
+      </c>
+      <c r="E8" s="3">
         <v>965000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>945000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>903000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>832000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>842000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>807000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>821000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1215000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1246000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1314000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>682000</v>
+      </c>
+      <c r="E9" s="3">
         <v>717000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>686000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>677000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>636000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>654000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>631000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>609000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>913000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>953000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1007000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>256000</v>
+      </c>
+      <c r="E10" s="3">
         <v>248000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>259000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>226000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>196000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>188000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>176000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>212000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>302000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>293000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,16 +853,17 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E12" s="3">
         <v>22000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>21000</v>
       </c>
       <c r="F12" s="3">
         <v>21000</v>
@@ -858,25 +872,28 @@
         <v>21000</v>
       </c>
       <c r="H12" s="3">
+        <v>21000</v>
+      </c>
+      <c r="I12" s="3">
         <v>20000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>23000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>33000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>36000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,43 +927,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E14" s="3">
         <v>117000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>51000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-8000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>137000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>31000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>441000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>852000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-5346000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>805000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -962,8 +985,8 @@
       <c r="G15" s="3">
         <v>39000</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>11</v>
+      <c r="H15" s="3">
+        <v>39000</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>11</v>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>920000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1043000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>933000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>878000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>845000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>949000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>867000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1318000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2046000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-4127000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2064000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-78000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>25000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-107000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-60000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-497000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-831000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5373000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-750000</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,78 +1110,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-59000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-73000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-83000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-74000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-67000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-99000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-70000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-83000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-41000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-34000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>51000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>56000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>24000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-58000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-42000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-454000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-757000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5456000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-666000</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,78 +1222,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-137000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-61000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-58000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-87000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-174000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-159000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-567000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-914000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5332000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-784000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E24" s="3">
         <v>20000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>28000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>15000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>23000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>21000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>44000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>68000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-157000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-89000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-73000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-110000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-195000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-167000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-579000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-958000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5264000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-815000</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-161000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-95000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-78000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-116000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-174000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-581000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-966000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5253000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E32" s="3">
         <v>59000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>73000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>83000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>74000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>67000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>99000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>70000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>83000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>41000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-161000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-95000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-78000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-116000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-174000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-581000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-966000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5253000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-161000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-95000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-78000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-116000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-174000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-581000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-966000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5253000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1793,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>841000</v>
+      </c>
+      <c r="E41" s="3">
         <v>951000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1291000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1217000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1177000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1118000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1121000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>680000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>670000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>618000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,148 +1867,163 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>868000</v>
+      </c>
+      <c r="E43" s="3">
         <v>825000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>816000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>782000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>793000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>833000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>836000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>929000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1206000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1244000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1277000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>684000</v>
+      </c>
+      <c r="E44" s="3">
         <v>670000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>681000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>662000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>676000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>717000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>811000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>862000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1004000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>972000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1126000</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>496000</v>
+      </c>
+      <c r="E45" s="3">
         <v>465000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>456000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>465000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>512000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>509000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>525000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>456000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>494000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>619000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>845000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2889000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2911000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3244000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3126000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3158000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3177000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3293000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2927000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3374000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3453000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3924000</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,78 +2057,87 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1083000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1109000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1139000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1234000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1298000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1374000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1451000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1522000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1726000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2378000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2143000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>619000</v>
+      </c>
+      <c r="E49" s="3">
         <v>657000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>695000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>734000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>771000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>810000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>841000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>875000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1000000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1353000</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E52" s="3">
         <v>97000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>70000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>66000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>68000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>73000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>79000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>85000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>65000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>109000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>257000</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4684000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4774000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5148000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5160000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5295000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5434000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5664000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5409000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6165000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7293000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6324000</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,148 +2357,161 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>385000</v>
+      </c>
+      <c r="E57" s="3">
         <v>380000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>350000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>348000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>330000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>325000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>332000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>384000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>544000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>585000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>627000</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E58" s="3">
         <v>12000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>211000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>32000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>26000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1706000</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>902000</v>
+      </c>
+      <c r="E59" s="3">
         <v>940000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>963000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>885000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1023000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1024000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1070000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1010000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1074000</v>
       </c>
       <c r="L59" s="3">
         <v>1074000</v>
       </c>
       <c r="M59" s="3">
+        <v>1074000</v>
+      </c>
+      <c r="N59" s="3">
         <v>1047000</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1332000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1524000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1243000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1364000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1362000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1416000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1426000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1644000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1672000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3380000</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2376,69 +2519,75 @@
         <v>2416000</v>
       </c>
       <c r="E61" s="3">
+        <v>2416000</v>
+      </c>
+      <c r="F61" s="3">
         <v>2431000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2605000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2602000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2601000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2602000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2148000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2149000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2151000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>542000</v>
+      </c>
+      <c r="E62" s="3">
         <v>530000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>546000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>553000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>508000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>534000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>523000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>530000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>509000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>554000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8109000</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4288000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4302000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4527000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4434000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4508000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4527000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4577000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4142000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4346000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4413000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11586000</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2477000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2397000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2236000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2141000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2063000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1947000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1747000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1573000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-992000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-26000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10289000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>396000</v>
+      </c>
+      <c r="E76" s="3">
         <v>472000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>621000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>726000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>787000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>907000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1087000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1267000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1819000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2880000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5262000</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-161000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-95000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-78000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-116000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-174000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-581000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-966000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5253000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3230,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E83" s="3">
         <v>103000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>112000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>114000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>111000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>116000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>117000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>113000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>157000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>124000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>118000</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E89" s="3">
         <v>88000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>114000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>46000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>74000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>22000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>127000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>31000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>30000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-201000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-41000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-54000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-27000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-35000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-38000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-93000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-63000</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-81000</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>21000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-51000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-35000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-75000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13000</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +3830,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-338000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-50000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-52000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>412000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-170000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>648000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>8000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-11000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-333000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>59000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>44000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>58000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>537000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-36000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-250000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>432000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WFRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WFRD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="E8" s="3">
         <v>938000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>965000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>945000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>903000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>832000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>842000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>807000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>821000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1215000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1246000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1314000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>756000</v>
+      </c>
+      <c r="E9" s="3">
         <v>682000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>717000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>686000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>677000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>636000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>654000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>631000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>609000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>913000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>953000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1007000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>308000</v>
+      </c>
+      <c r="E10" s="3">
         <v>256000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>248000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>259000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>226000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>196000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>188000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>176000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>212000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>302000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>293000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,19 +867,20 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E12" s="3">
         <v>21000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>22000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>21000</v>
       </c>
       <c r="G12" s="3">
         <v>21000</v>
@@ -875,25 +889,28 @@
         <v>21000</v>
       </c>
       <c r="I12" s="3">
+        <v>21000</v>
+      </c>
+      <c r="J12" s="3">
         <v>20000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>23000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>33000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>36000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,46 +947,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E14" s="3">
         <v>39000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>117000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>51000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-8000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>137000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>31000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>441000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>852000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-5346000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>805000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,8 +1011,8 @@
       <c r="H15" s="3">
         <v>39000</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>11</v>
+      <c r="I15" s="3">
+        <v>39000</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>11</v>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>960000</v>
+      </c>
+      <c r="E17" s="3">
         <v>920000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1043000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>933000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>878000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>845000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>949000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>867000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1318000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2046000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-4127000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2064000</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E18" s="3">
         <v>18000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-78000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>25000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-107000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-60000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-497000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-831000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5373000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-750000</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,84 +1144,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-64000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-59000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-73000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-83000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-74000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-67000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-99000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-70000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-83000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-41000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E21" s="3">
         <v>41000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-34000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>51000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>56000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>24000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-58000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-42000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-454000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-757000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5456000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-666000</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,84 +1265,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-46000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-137000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-61000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-58000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-87000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-174000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-159000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-567000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-914000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5332000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-784000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E24" s="3">
         <v>28000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>20000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>28000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>15000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>23000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>21000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>44000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>68000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-74000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-157000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-89000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-73000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-110000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-195000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-167000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-579000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-958000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5264000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-815000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-80000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-161000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-95000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-78000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-116000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-174000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-581000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-966000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5253000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E32" s="3">
         <v>64000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>59000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>73000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>83000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>74000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>67000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>99000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>70000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>83000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>41000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-80000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-161000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-95000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-78000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-116000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-174000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-581000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-966000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5253000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-80000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-161000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-95000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-78000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-116000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-174000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-581000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-966000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5253000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>879000</v>
+      </c>
+      <c r="E41" s="3">
         <v>841000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>951000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1291000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1217000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1177000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1118000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1121000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>680000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>670000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>618000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,160 +1960,175 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>930000</v>
+      </c>
+      <c r="E43" s="3">
         <v>868000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>825000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>816000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>782000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>793000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>833000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>836000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>929000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1206000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1244000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1277000</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>716000</v>
+      </c>
+      <c r="E44" s="3">
         <v>684000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>670000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>681000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>662000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>676000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>717000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>811000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>862000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1004000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>972000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1126000</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>485000</v>
+      </c>
+      <c r="E45" s="3">
         <v>496000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>465000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>456000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>465000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>512000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>509000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>525000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>456000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>494000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>619000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>845000</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3010000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2889000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2911000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3244000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3126000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3158000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3177000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3293000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2927000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3374000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3453000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3924000</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,84 +2165,93 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1054000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1083000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1109000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1139000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1234000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1298000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1374000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1451000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1522000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1726000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2378000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2143000</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>579000</v>
+      </c>
+      <c r="E49" s="3">
         <v>619000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>657000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>695000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>734000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>771000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>810000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>841000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>875000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1000000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1353000</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2329,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E52" s="3">
         <v>93000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>97000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>70000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>66000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>68000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>73000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>79000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>85000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>65000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>109000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>257000</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4735000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4684000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4774000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5148000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5160000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5295000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5434000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5664000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5409000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6165000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7293000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6324000</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,236 +2488,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>448000</v>
+      </c>
+      <c r="E57" s="3">
         <v>385000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>380000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>350000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>348000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>330000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>325000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>332000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>384000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>544000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>585000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>627000</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E58" s="3">
         <v>13000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>211000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>13000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>32000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>26000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>13000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1706000</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>871000</v>
+      </c>
+      <c r="E59" s="3">
         <v>902000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>940000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>963000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>885000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1023000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1024000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1070000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1010000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1074000</v>
       </c>
       <c r="M59" s="3">
         <v>1074000</v>
       </c>
       <c r="N59" s="3">
+        <v>1074000</v>
+      </c>
+      <c r="O59" s="3">
         <v>1047000</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1383000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1332000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1524000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1243000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1364000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1362000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1416000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1426000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1644000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1672000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3380000</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2416000</v>
+        <v>2366000</v>
       </c>
       <c r="E61" s="3">
         <v>2416000</v>
       </c>
       <c r="F61" s="3">
+        <v>2416000</v>
+      </c>
+      <c r="G61" s="3">
         <v>2431000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2605000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2602000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2601000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2602000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2148000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2149000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2151000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>495000</v>
+      </c>
+      <c r="E62" s="3">
         <v>542000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>530000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>546000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>553000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>508000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>534000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>523000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>530000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>509000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>554000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8109000</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4269000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4288000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4302000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4527000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4434000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4508000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4527000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4577000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4142000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4346000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4413000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11586000</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2471000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2477000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2397000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2236000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2141000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2063000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1947000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1747000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1573000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-992000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-26000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10289000</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>466000</v>
+      </c>
+      <c r="E76" s="3">
         <v>396000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>472000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>621000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>726000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>787000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>907000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1087000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1267000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1819000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2880000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5262000</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-80000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-161000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-95000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-78000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-116000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-174000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-581000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-966000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5253000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3429,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E83" s="3">
         <v>87000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>103000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>112000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>114000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>111000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>116000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>117000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>113000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>157000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>124000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>118000</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-64000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>88000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>114000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>46000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>74000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>22000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>127000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>31000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>30000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-201000</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3733,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-41000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-20000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-54000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-27000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-35000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-38000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-93000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-63000</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E94" s="3">
         <v>9000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-81000</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>21000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-51000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-35000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-75000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13000</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,118 +4076,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-338000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-50000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-52000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>412000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-170000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>648000</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>8000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-11000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-57000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-333000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>59000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>44000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>58000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>537000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-36000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-250000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>432000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WFRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WFRD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,207 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1120000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1064000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>938000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>965000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>945000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>903000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>832000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>842000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>807000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>821000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1215000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1246000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1314000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>775000</v>
+      </c>
+      <c r="E9" s="3">
         <v>756000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>682000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>717000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>686000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>677000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>636000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>654000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>631000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>609000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>913000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>953000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1007000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>345000</v>
+      </c>
+      <c r="E10" s="3">
         <v>308000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>256000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>248000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>259000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>226000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>196000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>188000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>176000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>212000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>302000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>293000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,22 +881,23 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E12" s="3">
         <v>22000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>21000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>22000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>21000</v>
       </c>
       <c r="H12" s="3">
         <v>21000</v>
@@ -892,25 +906,28 @@
         <v>21000</v>
       </c>
       <c r="J12" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K12" s="3">
         <v>20000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>23000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>33000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>36000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,49 +967,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-14000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>39000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>117000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>51000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-8000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>137000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>31000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>441000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>852000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-5346000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>805000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1014,8 +1037,8 @@
       <c r="I15" s="3">
         <v>39000</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>11</v>
+      <c r="J15" s="3">
+        <v>39000</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>11</v>
@@ -1032,8 +1055,11 @@
       <c r="O15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1072,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1001000</v>
+      </c>
+      <c r="E17" s="3">
         <v>960000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>920000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1043000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>933000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>878000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>845000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>949000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>867000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1318000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2046000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-4127000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2064000</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E18" s="3">
         <v>104000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>18000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-78000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>25000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-107000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-60000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-497000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-831000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5373000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-750000</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,90 +1178,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-80000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-64000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-59000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-73000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-83000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-74000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-67000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-99000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-70000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-83000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-41000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E21" s="3">
         <v>114000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>41000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-34000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>51000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>56000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>24000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-58000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-42000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-454000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-757000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5456000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-666000</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,90 +1308,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E23" s="3">
         <v>24000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-46000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-137000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-61000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-58000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-87000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-174000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-159000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-567000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-914000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5332000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-784000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E24" s="3">
         <v>12000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>28000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>20000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>28000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>15000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>23000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>21000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>44000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>68000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1440,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E26" s="3">
         <v>12000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-74000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-157000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-89000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-73000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-110000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-195000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-167000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-579000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-958000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5264000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-815000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E27" s="3">
         <v>6000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-80000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-161000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-95000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-78000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-116000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-174000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-581000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-966000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5253000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1572,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1616,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1704,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E32" s="3">
         <v>80000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>64000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>59000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>73000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>83000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>74000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>67000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>99000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>70000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>83000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>41000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E33" s="3">
         <v>6000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-80000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-161000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-95000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-78000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-116000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-174000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-581000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-966000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5253000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1836,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E35" s="3">
         <v>6000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-80000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-161000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-95000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-78000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-116000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-174000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-581000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-966000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5253000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +1967,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>933000</v>
+      </c>
+      <c r="E41" s="3">
         <v>879000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>841000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>951000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1291000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1217000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1177000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1118000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1121000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>680000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>670000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>618000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,172 +2053,187 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>927000</v>
+      </c>
+      <c r="E43" s="3">
         <v>930000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>868000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>825000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>816000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>782000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>793000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>833000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>836000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>929000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1206000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1244000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1277000</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>723000</v>
+      </c>
+      <c r="E44" s="3">
         <v>716000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>684000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>670000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>681000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>662000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>676000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>717000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>811000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>862000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1004000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>972000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1126000</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>480000</v>
+      </c>
+      <c r="E45" s="3">
         <v>485000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>496000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>465000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>456000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>465000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>512000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>509000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>525000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>456000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>494000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>619000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>845000</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3063000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3010000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2889000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2911000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3244000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3126000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3158000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3177000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3293000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2927000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3374000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3453000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3924000</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,90 +2273,99 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1019000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1054000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1083000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1109000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1139000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1234000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1298000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1374000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1451000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1522000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1726000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2378000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2143000</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>540000</v>
+      </c>
+      <c r="E49" s="3">
         <v>579000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>619000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>657000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>695000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>734000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>771000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>810000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>841000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>875000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1000000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1353000</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2449,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E52" s="3">
         <v>92000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>93000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>97000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>70000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>66000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>68000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>73000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>79000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>85000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>65000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>109000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>257000</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2537,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4707000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4735000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4684000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4774000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5148000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5160000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5295000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5434000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5664000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5409000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6165000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7293000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6324000</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,172 +2619,185 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>425000</v>
+      </c>
+      <c r="E57" s="3">
         <v>448000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>385000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>380000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>350000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>348000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>330000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>325000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>332000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>384000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>544000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>585000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>627000</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E58" s="3">
         <v>64000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>13000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>211000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>13000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>32000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>26000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>13000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1706000</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>945000</v>
+      </c>
+      <c r="E59" s="3">
         <v>871000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>902000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>940000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>963000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>885000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1023000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1024000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1070000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1010000</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1074000</v>
       </c>
       <c r="N59" s="3">
         <v>1074000</v>
       </c>
       <c r="O59" s="3">
+        <v>1074000</v>
+      </c>
+      <c r="P59" s="3">
         <v>1047000</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1384000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1383000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1300000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1332000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1524000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1243000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1364000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1362000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1416000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1426000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1644000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1672000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3380000</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2662,81 +2805,87 @@
         <v>2366000</v>
       </c>
       <c r="E61" s="3">
-        <v>2416000</v>
+        <v>2366000</v>
       </c>
       <c r="F61" s="3">
         <v>2416000</v>
       </c>
       <c r="G61" s="3">
+        <v>2416000</v>
+      </c>
+      <c r="H61" s="3">
         <v>2431000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2605000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2602000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2601000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2602000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2148000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2149000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2151000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>485000</v>
+      </c>
+      <c r="E62" s="3">
         <v>495000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>542000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>530000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>546000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>553000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>508000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>534000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>523000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>530000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>509000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>554000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8109000</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3013,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4254000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4269000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4288000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4302000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4527000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4434000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4508000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4527000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4577000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4142000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4346000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4413000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11586000</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3251,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2443000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2471000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2477000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2397000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2236000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2141000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2063000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1947000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1747000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1573000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-992000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-26000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10289000</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3427,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>453000</v>
+      </c>
+      <c r="E76" s="3">
         <v>466000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>396000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>472000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>621000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>726000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>787000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>907000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1087000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1267000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1819000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2880000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5262000</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3515,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E81" s="3">
         <v>6000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-80000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-161000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-95000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-78000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-116000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-174000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-581000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-966000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5253000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,49 +3628,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E83" s="3">
         <v>90000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>87000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>103000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>112000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>114000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>111000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>116000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>117000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>113000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>157000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>124000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>118000</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3890,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>160000</v>
+      </c>
+      <c r="E89" s="3">
         <v>60000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-64000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>88000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>114000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>46000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>74000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>22000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>127000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>31000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>30000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-201000</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +3954,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-24000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-41000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-54000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-35000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-38000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-93000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-63000</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4084,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>9000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-81000</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>21000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-51000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-35000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-75000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13000</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4190,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,127 +4322,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-20000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-338000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-50000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-52000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>412000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-170000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>648000</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-11000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E102" s="3">
         <v>34000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-57000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-333000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>59000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>44000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>58000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>537000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-36000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-250000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>432000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WFRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WFRD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,219 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1209000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1120000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1064000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>938000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>965000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>945000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>903000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>832000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>842000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>807000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>821000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1215000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1246000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1314000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>807000</v>
+      </c>
+      <c r="E9" s="3">
         <v>775000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>756000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>682000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>717000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>686000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>677000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>636000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>654000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>631000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>609000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>913000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>953000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1007000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>402000</v>
+      </c>
+      <c r="E10" s="3">
         <v>345000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>308000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>256000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>248000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>259000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>226000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>196000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>188000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>176000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>212000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>302000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>293000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,25 +894,26 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E12" s="3">
         <v>23000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>22000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>21000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>22000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>21000</v>
       </c>
       <c r="I12" s="3">
         <v>21000</v>
@@ -909,25 +922,28 @@
         <v>21000</v>
       </c>
       <c r="K12" s="3">
+        <v>21000</v>
+      </c>
+      <c r="L12" s="3">
         <v>20000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>23000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>33000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>36000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -970,57 +986,63 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-14000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>39000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>117000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>51000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-8000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>137000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>31000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>441000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>852000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-5346000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>805000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>39000</v>
+        <v>38000</v>
       </c>
       <c r="E15" s="3">
         <v>39000</v>
@@ -1040,8 +1062,8 @@
       <c r="J15" s="3">
         <v>39000</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>11</v>
+      <c r="K15" s="3">
+        <v>39000</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>11</v>
@@ -1058,8 +1080,11 @@
       <c r="P15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1043000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1001000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>960000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>920000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1043000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>933000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>878000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>845000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>949000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>867000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1318000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2046000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>-4127000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2064000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E18" s="3">
         <v>119000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>104000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>18000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-78000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>25000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-107000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-60000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-497000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-831000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5373000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-750000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,96 +1211,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-56000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-80000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-64000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-59000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-73000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-83000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-74000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-67000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-99000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-70000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-83000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-41000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E21" s="3">
         <v>151000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>114000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>41000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-34000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>51000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>56000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>24000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-58000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-42000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-454000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-757000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5456000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-666000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1311,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E23" s="3">
         <v>63000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>24000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-46000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-137000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-61000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-58000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-87000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-174000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-159000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-567000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-914000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5332000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-784000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E24" s="3">
         <v>26000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>28000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>20000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>28000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>15000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>23000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>44000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>68000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E26" s="3">
         <v>37000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-74000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-157000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-89000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-73000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-110000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-195000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-167000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-579000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-958000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5264000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-815000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E27" s="3">
         <v>28000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-80000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-161000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-95000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-78000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-116000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-174000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-581000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-966000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5253000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E32" s="3">
         <v>56000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>80000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>64000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>59000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>73000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>83000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>74000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>67000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>99000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>70000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>83000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>41000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E33" s="3">
         <v>28000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-80000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-161000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-95000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-78000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-116000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-174000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-581000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-966000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5253000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E35" s="3">
         <v>28000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-80000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-161000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-95000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-78000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-116000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-174000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-581000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-966000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5253000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>910000</v>
+      </c>
+      <c r="E41" s="3">
         <v>933000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>879000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>841000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>951000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1291000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1217000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1177000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1118000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1121000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>680000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>670000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>618000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,184 +2145,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1028000</v>
+      </c>
+      <c r="E43" s="3">
         <v>927000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>930000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>868000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>825000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>816000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>782000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>793000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>833000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>836000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>929000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1206000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1244000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1277000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>689000</v>
+      </c>
+      <c r="E44" s="3">
         <v>723000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>716000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>684000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>670000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>681000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>662000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>676000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>717000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>811000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>862000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1004000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>972000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1126000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>416000</v>
+      </c>
+      <c r="E45" s="3">
         <v>480000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>485000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>496000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>465000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>456000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>465000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>512000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>509000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>525000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>456000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>494000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>619000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>845000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3043000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3063000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3010000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2889000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2911000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3244000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3126000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3158000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3177000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3293000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2927000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3374000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3453000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3924000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,96 +2380,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1033000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1019000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1054000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1083000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1109000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1139000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1234000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1298000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1374000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1451000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1522000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1726000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2378000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2143000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>506000</v>
+      </c>
+      <c r="E49" s="3">
         <v>540000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>579000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>619000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>657000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>695000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>734000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>771000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>810000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>841000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>875000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1000000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1353000</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>138000</v>
+      </c>
+      <c r="E52" s="3">
         <v>85000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>92000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>93000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>97000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>70000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>66000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>68000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>73000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>79000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>85000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>65000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>109000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>257000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4720000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4707000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4735000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4684000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4774000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5148000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5160000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5295000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5434000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5664000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5409000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6165000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7293000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6324000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,272 +2749,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>460000</v>
+      </c>
+      <c r="E57" s="3">
         <v>425000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>448000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>385000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>380000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>350000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>348000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>330000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>325000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>332000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>384000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>544000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>585000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>627000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E58" s="3">
         <v>14000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>64000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>12000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>211000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>32000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>26000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>13000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1706000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>965000</v>
+      </c>
+      <c r="E59" s="3">
         <v>945000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>871000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>902000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>940000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>963000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>885000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1023000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1024000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1070000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1010000</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1074000</v>
       </c>
       <c r="O59" s="3">
         <v>1074000</v>
       </c>
       <c r="P59" s="3">
+        <v>1074000</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1047000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1470000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1384000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1383000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1300000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1332000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1524000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1243000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1364000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1362000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1416000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1426000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1644000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1672000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3380000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2366000</v>
+        <v>2203000</v>
       </c>
       <c r="E61" s="3">
         <v>2366000</v>
       </c>
       <c r="F61" s="3">
-        <v>2416000</v>
+        <v>2366000</v>
       </c>
       <c r="G61" s="3">
         <v>2416000</v>
       </c>
       <c r="H61" s="3">
+        <v>2416000</v>
+      </c>
+      <c r="I61" s="3">
         <v>2431000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2605000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2602000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2601000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2602000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2148000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2149000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2151000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>496000</v>
+      </c>
+      <c r="E62" s="3">
         <v>485000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>495000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>542000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>530000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>546000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>553000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>508000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>534000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>523000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>530000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>509000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>554000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8109000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4185000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4254000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4269000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4288000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4302000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4527000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4434000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4508000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4527000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4577000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4142000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4346000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4413000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11586000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2371000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2443000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2471000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2477000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2397000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2236000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2141000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2063000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1947000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1747000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1573000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-992000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-26000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10289000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>535000</v>
+      </c>
+      <c r="E76" s="3">
         <v>453000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>466000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>396000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>472000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>621000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>726000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>787000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>907000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1087000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1267000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1819000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2880000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5262000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E81" s="3">
         <v>28000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-80000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-161000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-95000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-78000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-116000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-174000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-581000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-966000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5253000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E83" s="3">
         <v>88000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>90000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>87000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>103000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>112000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>114000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>111000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>116000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>117000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>113000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>157000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>124000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>118000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E89" s="3">
         <v>160000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>60000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-64000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>88000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>114000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>46000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>74000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>22000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>127000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>31000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>30000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-201000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-39000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-24000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-20000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-41000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-54000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-35000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-38000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-93000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-63000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-29000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>9000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-81000</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>21000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-51000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-35000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-75000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-13000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-159000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-64000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-20000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-338000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-50000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-9000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-52000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>412000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-170000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>648000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-14000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>8000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-11000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E102" s="3">
         <v>53000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>34000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-57000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-333000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>59000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>44000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>58000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>537000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-36000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-250000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>432000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WFRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WFRD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>WFRD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1186000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1209000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1120000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1064000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>938000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>965000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>945000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>903000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>832000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>842000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>807000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>821000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1215000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1246000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1314000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>790000</v>
+      </c>
+      <c r="E9" s="3">
         <v>807000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>775000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>756000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>682000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>717000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>686000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>677000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>636000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>654000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>631000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>609000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>913000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>953000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1007000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>396000</v>
+      </c>
+      <c r="E10" s="3">
         <v>402000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>345000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>308000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>256000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>248000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>259000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>226000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>196000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>188000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>176000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>212000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>302000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>293000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,28 +908,29 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E12" s="3">
         <v>24000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>23000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>22000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>21000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>22000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>21000</v>
       </c>
       <c r="J12" s="3">
         <v>21000</v>
@@ -925,25 +939,28 @@
         <v>21000</v>
       </c>
       <c r="L12" s="3">
+        <v>21000</v>
+      </c>
+      <c r="M12" s="3">
         <v>20000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>23000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>33000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>36000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,63 +1006,69 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>9000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-14000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>39000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>117000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>51000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-8000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>137000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>31000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>441000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>852000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-5346000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>805000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E15" s="3">
         <v>38000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>39000</v>
       </c>
       <c r="F15" s="3">
         <v>39000</v>
@@ -1065,8 +1088,8 @@
       <c r="K15" s="3">
         <v>39000</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>11</v>
+      <c r="L15" s="3">
+        <v>39000</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>11</v>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1001000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1043000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1001000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>960000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>920000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1043000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>933000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>878000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>845000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>949000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>867000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1318000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2046000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-4127000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2064000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E18" s="3">
         <v>166000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>119000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>104000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>18000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-78000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>25000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-107000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-60000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-497000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-831000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5373000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-750000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1245,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-69000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-56000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-80000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-64000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-59000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-73000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-83000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-74000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-67000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-99000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-70000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-83000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E21" s="3">
         <v>181000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>151000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>114000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>41000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-34000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>51000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>56000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>24000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-58000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-42000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-454000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-757000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5456000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-666000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E23" s="3">
         <v>97000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>63000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>24000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-46000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-137000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-61000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-58000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-87000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-174000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-159000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-567000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-914000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5332000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-784000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E24" s="3">
         <v>21000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>26000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>28000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>20000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>28000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>15000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>44000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>68000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,55 +1543,61 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E26" s="3">
         <v>76000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>37000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-74000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-157000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-89000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-73000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-110000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-195000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-167000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-579000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-958000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5264000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-815000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1550,46 +1605,49 @@
         <v>72000</v>
       </c>
       <c r="E27" s="3">
+        <v>72000</v>
+      </c>
+      <c r="F27" s="3">
         <v>28000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-80000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-161000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-95000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-78000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-116000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-174000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-581000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-966000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5253000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,55 +1843,61 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E32" s="3">
         <v>69000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>56000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>80000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>64000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>59000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>73000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>83000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>74000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>67000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>99000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>70000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>83000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>41000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1832,46 +1905,49 @@
         <v>72000</v>
       </c>
       <c r="E33" s="3">
+        <v>72000</v>
+      </c>
+      <c r="F33" s="3">
         <v>28000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-80000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-161000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-95000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-78000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-116000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-174000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-581000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-966000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5253000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +1993,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1926,98 +2005,104 @@
         <v>72000</v>
       </c>
       <c r="E35" s="3">
+        <v>72000</v>
+      </c>
+      <c r="F35" s="3">
         <v>28000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-80000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-161000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-95000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-78000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-116000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-174000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-581000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-966000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5253000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>833000</v>
+      </c>
+      <c r="E41" s="3">
         <v>910000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>933000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>879000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>841000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>951000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1291000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1217000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1177000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1118000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1121000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>680000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>670000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>618000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,149 +2238,161 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1123000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1028000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>927000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>930000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>868000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>825000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>816000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>782000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>793000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>833000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>836000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>929000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1206000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1244000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1277000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>719000</v>
+      </c>
+      <c r="E44" s="3">
         <v>689000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>723000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>716000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>684000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>670000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>681000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>662000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>676000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>717000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>811000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>862000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1004000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>972000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1126000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E45" s="3">
         <v>416000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>480000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>485000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>496000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>465000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>456000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>465000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>512000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>509000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>525000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>456000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>494000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>619000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>845000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2298,69 +2400,72 @@
         <v>3043000</v>
       </c>
       <c r="E46" s="3">
+        <v>3043000</v>
+      </c>
+      <c r="F46" s="3">
         <v>3063000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3010000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2889000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2911000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3244000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3126000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3158000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3177000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3293000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2927000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3374000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3453000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3924000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>25000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2383,102 +2488,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1049000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1033000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1019000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1054000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1083000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1109000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1139000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1234000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1298000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1374000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1451000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1522000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1726000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2378000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2143000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>474000</v>
+      </c>
+      <c r="E49" s="3">
         <v>506000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>540000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>579000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>619000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>657000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>695000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>734000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>771000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>810000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>841000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>875000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1000000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1353000</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E52" s="3">
         <v>138000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>85000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>92000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>93000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>97000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>70000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>66000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>68000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>73000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>79000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>85000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>65000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>109000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>257000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4709000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4720000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4707000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4735000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4684000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4774000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5148000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5160000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5295000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5434000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5664000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5409000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6165000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7293000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6324000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>502000</v>
+      </c>
+      <c r="E57" s="3">
         <v>460000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>425000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>448000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>385000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>380000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>350000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>348000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>330000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>325000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>332000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>384000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>544000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>585000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>627000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E58" s="3">
         <v>45000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>64000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>211000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>14000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>32000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>26000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>13000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1706000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>889000</v>
+      </c>
+      <c r="E59" s="3">
         <v>965000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>945000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>871000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>902000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>940000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>963000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>885000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1023000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1024000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1070000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1010000</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1074000</v>
       </c>
       <c r="P59" s="3">
         <v>1074000</v>
       </c>
       <c r="Q59" s="3">
+        <v>1074000</v>
+      </c>
+      <c r="R59" s="3">
         <v>1047000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1511000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1470000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1384000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1383000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1300000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1332000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1524000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1243000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1364000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1362000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1416000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1426000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1644000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1672000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3380000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2067000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2203000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>2366000</v>
       </c>
       <c r="F61" s="3">
         <v>2366000</v>
       </c>
       <c r="G61" s="3">
-        <v>2416000</v>
+        <v>2366000</v>
       </c>
       <c r="H61" s="3">
         <v>2416000</v>
       </c>
       <c r="I61" s="3">
+        <v>2416000</v>
+      </c>
+      <c r="J61" s="3">
         <v>2431000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2605000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2602000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2601000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2602000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2148000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2149000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2151000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>545000</v>
+      </c>
+      <c r="E62" s="3">
         <v>496000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>485000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>495000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>542000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>530000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>546000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>553000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>508000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>534000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>523000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>530000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>509000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>554000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8109000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4142000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4185000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4254000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4269000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4288000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4302000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4527000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4434000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4508000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4527000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4577000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4142000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4346000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4413000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11586000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2299000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2371000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2443000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2471000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2477000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2397000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2236000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2141000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2063000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1947000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1747000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1573000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-992000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-10289000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>567000</v>
+      </c>
+      <c r="E76" s="3">
         <v>535000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>453000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>466000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>396000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>472000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>621000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>726000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>787000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>907000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1087000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1267000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1819000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2880000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5262000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +3898,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3770,46 +3965,49 @@
         <v>72000</v>
       </c>
       <c r="E81" s="3">
+        <v>72000</v>
+      </c>
+      <c r="F81" s="3">
         <v>28000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-80000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-161000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-95000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-78000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-116000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-174000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-581000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-966000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5253000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E83" s="3">
         <v>84000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>88000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>90000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>87000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>103000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>112000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>114000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>111000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>116000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>117000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>113000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>157000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>124000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>118000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E89" s="3">
         <v>193000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>160000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>60000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-64000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>88000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>114000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>46000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>74000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>22000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>127000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>31000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>30000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-201000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-49000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-39000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-24000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-41000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-54000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-27000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-35000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-38000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-93000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-63000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-32000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-29000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>9000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-81000</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>21000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-51000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-35000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-75000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-13000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-127000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-159000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-64000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-20000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-338000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-50000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-52000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>412000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-170000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>648000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-33000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-14000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>8000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-11000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-129000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-31000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>53000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>34000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-57000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-333000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>59000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>44000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>58000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>537000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-36000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-250000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>432000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WFRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WFRD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1274000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1186000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1209000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1120000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1064000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>938000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>965000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>945000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>903000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>832000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>842000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>807000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>821000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1215000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1246000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1314000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>847000</v>
+      </c>
+      <c r="E9" s="3">
         <v>790000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>807000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>775000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>756000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>682000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>717000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>686000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>677000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>636000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>654000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>631000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>609000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>913000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>953000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1007000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>427000</v>
+      </c>
+      <c r="E10" s="3">
         <v>396000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>402000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>345000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>308000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>256000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>248000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>259000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>226000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>196000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>188000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>176000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>212000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>302000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>293000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,31 +922,32 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E12" s="3">
         <v>26000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>24000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>23000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>22000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>21000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>22000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>21000</v>
       </c>
       <c r="K12" s="3">
         <v>21000</v>
@@ -942,25 +956,28 @@
         <v>21000</v>
       </c>
       <c r="M12" s="3">
+        <v>21000</v>
+      </c>
+      <c r="N12" s="3">
         <v>20000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>23000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>33000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>36000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,58 +1026,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F14" s="3">
         <v>9000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-14000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>39000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>117000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>51000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-8000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>137000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>31000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>441000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>852000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-5346000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>805000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1068,10 +1091,10 @@
         <v>40000</v>
       </c>
       <c r="E15" s="3">
+        <v>40000</v>
+      </c>
+      <c r="F15" s="3">
         <v>38000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>39000</v>
       </c>
       <c r="G15" s="3">
         <v>39000</v>
@@ -1091,8 +1114,8 @@
       <c r="L15" s="3">
         <v>39000</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>11</v>
+      <c r="M15" s="3">
+        <v>39000</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>11</v>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1073000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1001000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1043000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1001000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>960000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>920000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1043000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>933000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>878000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>845000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>949000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>867000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1318000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2046000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>-4127000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2064000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E18" s="3">
         <v>185000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>166000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>119000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>104000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>18000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-78000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>12000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>25000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-107000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-60000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-497000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-831000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5373000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-750000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1279,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-127000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-66000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-69000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-56000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-80000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-64000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-59000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-73000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-83000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-74000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-67000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-99000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-70000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-83000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-41000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E21" s="3">
         <v>199000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>181000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>151000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>114000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>41000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-34000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>51000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>56000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>24000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-58000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-42000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-454000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-757000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5456000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-666000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,108 +1436,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E23" s="3">
         <v>119000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>97000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>63000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>24000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-46000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-137000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-61000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-58000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-87000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-174000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-159000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-567000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-914000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5332000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-784000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E24" s="3">
         <v>38000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>21000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>26000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>28000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>20000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>28000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>21000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>44000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>68000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E26" s="3">
         <v>81000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>76000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>37000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-74000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-157000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-89000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-73000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-110000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-195000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-167000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-579000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-958000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5264000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-815000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>72000</v>
+        <v>82000</v>
       </c>
       <c r="E27" s="3">
         <v>72000</v>
       </c>
       <c r="F27" s="3">
+        <v>72000</v>
+      </c>
+      <c r="G27" s="3">
         <v>28000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-80000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-161000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-95000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-78000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-116000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-174000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-581000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-966000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5253000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E32" s="3">
         <v>66000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>69000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>56000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>80000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>64000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>59000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>73000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>83000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>74000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>67000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>99000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>70000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>83000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>41000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>72000</v>
+        <v>82000</v>
       </c>
       <c r="E33" s="3">
         <v>72000</v>
       </c>
       <c r="F33" s="3">
+        <v>72000</v>
+      </c>
+      <c r="G33" s="3">
         <v>28000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-80000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-161000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-95000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-78000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-116000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-174000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-581000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-966000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5253000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>72000</v>
+        <v>82000</v>
       </c>
       <c r="E35" s="3">
         <v>72000</v>
       </c>
       <c r="F35" s="3">
+        <v>72000</v>
+      </c>
+      <c r="G35" s="3">
         <v>28000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-80000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-161000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-95000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-78000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-116000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-174000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-581000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-966000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5253000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>787000</v>
+      </c>
+      <c r="E41" s="3">
         <v>833000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>910000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>933000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>879000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>841000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>951000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1291000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1217000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1177000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1118000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1121000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>680000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>670000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>618000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,216 +2331,231 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1120000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1123000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1028000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>927000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>930000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>868000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>825000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>816000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>782000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>793000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>833000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>836000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>929000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1206000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1244000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1277000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>751000</v>
+      </c>
+      <c r="E44" s="3">
         <v>719000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>689000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>723000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>716000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>684000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>670000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>681000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>662000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>676000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>717000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>811000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>862000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1004000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>972000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1126000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>313000</v>
+      </c>
+      <c r="E45" s="3">
         <v>368000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>416000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>480000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>485000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>496000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>465000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>456000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>465000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>512000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>509000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>525000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>456000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>494000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>619000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>845000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3043000</v>
+        <v>2971000</v>
       </c>
       <c r="E46" s="3">
         <v>3043000</v>
       </c>
       <c r="F46" s="3">
+        <v>3043000</v>
+      </c>
+      <c r="G46" s="3">
         <v>3063000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3010000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2889000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2911000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3244000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3126000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3158000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3177000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3293000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2927000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3374000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3453000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3924000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E47" s="3">
         <v>25000</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>11</v>
@@ -2467,8 +2572,8 @@
       <c r="J47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2491,108 +2596,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1033000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1049000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1033000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1019000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1054000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1083000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1109000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1139000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1234000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1298000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1374000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1451000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1522000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1726000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2378000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2143000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>440000</v>
+      </c>
+      <c r="E49" s="3">
         <v>474000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>506000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>540000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>579000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>619000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>657000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>695000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>734000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>771000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>810000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>841000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>875000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1000000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1353000</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E52" s="3">
         <v>118000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>138000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>85000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>92000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>93000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>97000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>70000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>66000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>68000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>73000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>79000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>85000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>65000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>109000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>257000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4648000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4709000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4720000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4707000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4735000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4684000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4774000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5148000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5160000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5295000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5434000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5664000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5409000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6165000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7293000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6324000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2890,299 +3021,317 @@
         <v>502000</v>
       </c>
       <c r="E57" s="3">
+        <v>502000</v>
+      </c>
+      <c r="F57" s="3">
         <v>460000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>425000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>448000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>385000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>380000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>350000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>348000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>330000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>325000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>332000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>384000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>544000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>585000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>627000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E58" s="3">
         <v>120000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>45000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>64000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>211000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>13000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>14000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>32000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>26000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>13000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1706000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>929000</v>
+      </c>
+      <c r="E59" s="3">
         <v>889000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>965000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>945000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>871000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>902000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>940000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>963000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>885000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1023000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1024000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1070000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1010000</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1074000</v>
       </c>
       <c r="Q59" s="3">
         <v>1074000</v>
       </c>
       <c r="R59" s="3">
+        <v>1074000</v>
+      </c>
+      <c r="S59" s="3">
         <v>1047000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1464000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1511000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1470000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1384000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1383000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1300000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1332000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1524000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1243000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1364000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1362000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1416000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1426000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1644000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1672000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3380000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1993000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2067000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2203000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>2366000</v>
       </c>
       <c r="G61" s="3">
         <v>2366000</v>
       </c>
       <c r="H61" s="3">
-        <v>2416000</v>
+        <v>2366000</v>
       </c>
       <c r="I61" s="3">
         <v>2416000</v>
       </c>
       <c r="J61" s="3">
+        <v>2416000</v>
+      </c>
+      <c r="K61" s="3">
         <v>2431000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2605000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2602000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2601000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2602000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2148000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2149000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2151000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>519000</v>
+      </c>
+      <c r="E62" s="3">
         <v>545000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>496000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>485000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>495000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>542000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>530000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>546000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>553000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>508000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>534000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>523000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>530000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>509000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>554000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8109000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4003000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4142000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4185000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4254000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4269000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4288000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4302000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4527000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4434000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4508000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4527000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4577000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4142000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4346000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4413000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11586000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2217000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2299000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2371000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2443000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2471000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2477000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2397000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2236000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2141000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2063000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1947000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1747000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1573000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-992000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-26000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10289000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>645000</v>
+      </c>
+      <c r="E76" s="3">
         <v>567000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>535000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>453000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>466000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>396000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>472000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>621000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>726000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>787000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>907000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1087000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1267000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1819000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2880000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5262000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>72000</v>
+        <v>82000</v>
       </c>
       <c r="E81" s="3">
         <v>72000</v>
       </c>
       <c r="F81" s="3">
+        <v>72000</v>
+      </c>
+      <c r="G81" s="3">
         <v>28000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-80000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-161000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-95000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-78000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-116000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-174000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-581000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-966000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5253000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E83" s="3">
         <v>80000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>84000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>88000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>90000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>87000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>103000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>112000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>114000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>111000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>116000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>117000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>113000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>157000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>124000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>118000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E89" s="3">
         <v>84000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>193000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>160000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>60000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-64000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>88000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>114000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>46000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>74000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>22000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>127000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>31000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>30000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-201000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-64000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-49000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-39000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-24000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-41000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-54000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-27000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-35000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-93000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-63000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-64000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-32000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-29000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>9000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-81000</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>21000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-51000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-75000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-13000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-170000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-127000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-159000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-64000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-20000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-338000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-50000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-52000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>412000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-170000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>648000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-22000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-33000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-14000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-129000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-31000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>53000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>34000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-57000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-333000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>59000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>44000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>58000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>537000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-250000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>432000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WFRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WFRD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1313000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1274000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1186000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1209000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1120000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1064000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>938000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>965000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>945000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>903000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>832000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>842000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>807000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>821000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1215000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1246000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1314000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>859000</v>
+      </c>
+      <c r="E9" s="3">
         <v>847000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>790000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>807000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>775000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>756000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>682000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>717000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>686000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>677000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>636000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>654000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>631000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>609000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>913000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>953000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1007000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>454000</v>
+      </c>
+      <c r="E10" s="3">
         <v>427000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>396000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>402000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>345000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>308000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>256000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>248000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>259000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>226000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>196000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>188000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>176000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>212000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>302000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>293000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,34 +936,35 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E12" s="3">
         <v>27000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>26000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>24000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>23000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>22000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>22000</v>
-      </c>
-      <c r="K12" s="3">
-        <v>21000</v>
       </c>
       <c r="L12" s="3">
         <v>21000</v>
@@ -959,25 +973,28 @@
         <v>21000</v>
       </c>
       <c r="N12" s="3">
+        <v>21000</v>
+      </c>
+      <c r="O12" s="3">
         <v>20000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>23000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>33000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>36000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,75 +1046,81 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-5000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-14000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>39000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>117000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>51000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-8000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>137000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>31000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>441000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>852000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-5346000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>805000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>40000</v>
+        <v>37000</v>
       </c>
       <c r="E15" s="3">
         <v>40000</v>
       </c>
       <c r="F15" s="3">
+        <v>40000</v>
+      </c>
+      <c r="G15" s="3">
         <v>38000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>39000</v>
       </c>
       <c r="H15" s="3">
         <v>39000</v>
@@ -1117,8 +1140,8 @@
       <c r="M15" s="3">
         <v>39000</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>11</v>
+      <c r="N15" s="3">
+        <v>39000</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>11</v>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1095000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1073000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1001000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1043000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1001000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>960000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>920000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1043000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>933000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>878000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>845000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>949000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>867000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1318000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2046000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>-4127000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2064000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E18" s="3">
         <v>201000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>185000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>166000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>119000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>104000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>18000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-78000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>25000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-107000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-60000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-497000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-831000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5373000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-750000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,114 +1313,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-127000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-66000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-69000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-56000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-80000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-64000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-59000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-73000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-83000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-74000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-67000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-99000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-70000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-83000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-41000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E21" s="3">
         <v>155000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>199000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>181000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>151000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>114000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>41000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-34000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>51000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>56000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>24000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-58000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-42000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-454000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-757000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5456000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-666000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,114 +1479,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E23" s="3">
         <v>74000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>119000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>97000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>63000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>24000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-46000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-137000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-61000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-58000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-87000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-174000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-159000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-567000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-914000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5332000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-784000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-16000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>38000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>21000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>26000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>28000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>20000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>15000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>21000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>44000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>68000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E26" s="3">
         <v>90000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>81000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>76000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>37000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-74000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-157000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-89000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-73000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-110000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-195000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-167000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-579000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-958000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5264000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-815000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E27" s="3">
         <v>82000</v>
-      </c>
-      <c r="E27" s="3">
-        <v>72000</v>
       </c>
       <c r="F27" s="3">
         <v>72000</v>
       </c>
       <c r="G27" s="3">
+        <v>72000</v>
+      </c>
+      <c r="H27" s="3">
         <v>28000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-80000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-161000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-95000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-78000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-116000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-174000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-581000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-966000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5253000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1983,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E32" s="3">
         <v>127000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>66000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>69000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>56000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>80000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>64000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>59000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>73000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>83000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>74000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>67000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>99000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>70000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>83000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>41000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E33" s="3">
         <v>82000</v>
-      </c>
-      <c r="E33" s="3">
-        <v>72000</v>
       </c>
       <c r="F33" s="3">
         <v>72000</v>
       </c>
       <c r="G33" s="3">
+        <v>72000</v>
+      </c>
+      <c r="H33" s="3">
         <v>28000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-80000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-161000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-95000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-78000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-116000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-174000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-581000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-966000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5253000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E35" s="3">
         <v>82000</v>
-      </c>
-      <c r="E35" s="3">
-        <v>72000</v>
       </c>
       <c r="F35" s="3">
         <v>72000</v>
       </c>
       <c r="G35" s="3">
+        <v>72000</v>
+      </c>
+      <c r="H35" s="3">
         <v>28000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-80000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-161000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-95000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-78000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-116000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-174000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-581000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-966000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5253000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2314,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>839000</v>
+      </c>
+      <c r="E41" s="3">
         <v>787000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>833000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>910000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>933000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>879000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>841000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>951000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1291000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1217000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1177000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1118000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1121000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>680000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>670000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>618000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,231 +2424,246 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1318000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1120000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1123000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1028000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>927000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>930000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>868000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>825000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>816000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>782000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>793000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>833000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>836000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>929000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1206000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1244000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1277000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>776000</v>
+      </c>
+      <c r="E44" s="3">
         <v>751000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>719000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>689000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>723000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>716000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>684000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>670000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>681000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>662000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>676000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>717000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>811000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>862000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1004000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>972000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1126000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E45" s="3">
         <v>313000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>368000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>416000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>480000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>485000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>496000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>465000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>456000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>465000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>512000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>509000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>525000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>456000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>494000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>619000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>845000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3220000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2971000</v>
-      </c>
-      <c r="E46" s="3">
-        <v>3043000</v>
       </c>
       <c r="F46" s="3">
         <v>3043000</v>
       </c>
       <c r="G46" s="3">
+        <v>3043000</v>
+      </c>
+      <c r="H46" s="3">
         <v>3063000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3010000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2889000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2911000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3244000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3126000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3158000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3177000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3293000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2927000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3374000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3453000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3924000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E47" s="3">
         <v>27000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>25000</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>11</v>
@@ -2575,8 +2680,8 @@
       <c r="K47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2599,114 +2704,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1054000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1033000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1049000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1033000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1019000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1054000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1083000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1109000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1139000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1234000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1298000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1374000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1451000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1522000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1726000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2378000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2143000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>404000</v>
+      </c>
+      <c r="E49" s="3">
         <v>440000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>474000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>506000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>540000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>579000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>619000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>657000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>695000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>734000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>771000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>810000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>841000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>875000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1000000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1353000</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2928,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E52" s="3">
         <v>177000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>118000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>138000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>85000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>92000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>93000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>97000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>70000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>66000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>68000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>73000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>79000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>85000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>65000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>109000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>257000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4895000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4648000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4709000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4720000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4707000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4735000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4684000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4774000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5148000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5160000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5295000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5434000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5664000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5409000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6165000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7293000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6324000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,326 +3142,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>502000</v>
+        <v>620000</v>
       </c>
       <c r="E57" s="3">
         <v>502000</v>
       </c>
       <c r="F57" s="3">
+        <v>502000</v>
+      </c>
+      <c r="G57" s="3">
         <v>460000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>425000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>448000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>385000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>380000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>350000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>348000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>330000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>325000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>332000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>384000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>544000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>585000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>627000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E58" s="3">
         <v>33000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>120000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>45000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>64000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>13000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>12000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>211000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>13000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>14000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>32000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>26000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>13000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1706000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1020000</v>
+      </c>
+      <c r="E59" s="3">
         <v>929000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>889000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>965000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>945000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>871000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>902000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>940000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>963000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>885000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1023000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1024000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1070000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1010000</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1074000</v>
       </c>
       <c r="R59" s="3">
         <v>1074000</v>
       </c>
       <c r="S59" s="3">
+        <v>1074000</v>
+      </c>
+      <c r="T59" s="3">
         <v>1047000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1731000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1464000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1511000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1470000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1384000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1383000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1300000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1332000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1524000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1243000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1364000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1362000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1416000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1426000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1644000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1672000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3380000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1864000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1993000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2067000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2203000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>2366000</v>
       </c>
       <c r="H61" s="3">
         <v>2366000</v>
       </c>
       <c r="I61" s="3">
-        <v>2416000</v>
+        <v>2366000</v>
       </c>
       <c r="J61" s="3">
         <v>2416000</v>
       </c>
       <c r="K61" s="3">
+        <v>2416000</v>
+      </c>
+      <c r="L61" s="3">
         <v>2431000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2605000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2602000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2601000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2602000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2148000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2149000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2151000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>537000</v>
+      </c>
+      <c r="E62" s="3">
         <v>519000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>545000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>496000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>485000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>495000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>542000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>530000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>546000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>553000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>508000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>534000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>523000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>530000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>509000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>554000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8109000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4153000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4003000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4142000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4185000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4254000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4269000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4288000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4302000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4527000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4434000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4508000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4527000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4577000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4142000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4346000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4413000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11586000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2094000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2217000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2299000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2371000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2443000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2471000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2477000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2397000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2236000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2141000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2063000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1947000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1747000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1573000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-992000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-26000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10289000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>742000</v>
+      </c>
+      <c r="E76" s="3">
         <v>645000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>567000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>535000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>453000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>466000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>396000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>472000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>621000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>726000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>787000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>907000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1087000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1267000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1819000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2880000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-5262000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E81" s="3">
         <v>82000</v>
-      </c>
-      <c r="E81" s="3">
-        <v>72000</v>
       </c>
       <c r="F81" s="3">
         <v>72000</v>
       </c>
       <c r="G81" s="3">
+        <v>72000</v>
+      </c>
+      <c r="H81" s="3">
         <v>28000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-80000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-161000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-95000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-78000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-116000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-174000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-581000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-966000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5253000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-821000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4423,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E83" s="3">
         <v>81000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>80000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>84000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>88000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>90000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>87000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>103000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>112000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>114000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>111000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>116000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>117000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>113000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>157000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>124000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>118000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E89" s="3">
         <v>201000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>84000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>193000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>160000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>60000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-64000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>88000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>114000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>46000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>74000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>22000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>127000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>31000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>30000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-201000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4837,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-36000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-64000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-49000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-39000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-24000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-41000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-54000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-27000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-38000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-93000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-63000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-58000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-64000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-32000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-29000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>9000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-81000</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>21000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-51000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-35000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-75000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-13000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5305,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-170000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-127000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-159000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-64000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-20000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-338000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-50000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-9000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-52000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>412000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-170000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>648000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-34000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-22000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-33000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-14000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>8000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-11000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-61000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-129000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-31000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>53000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>34000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-57000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-333000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>59000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>44000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>58000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>537000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-36000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-250000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>432000</v>
       </c>
     </row>
